--- a/REGULAR/ACCOUNTING/ANACAY, LEVIE B..xlsx
+++ b/REGULAR/ACCOUNTING/ANACAY, LEVIE B..xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1895" uniqueCount="497">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1522,6 +1522,12 @@
   </si>
   <si>
     <t>UT(0-1-49)</t>
+  </si>
+  <si>
+    <t>8/3,18/2023</t>
+  </si>
+  <si>
+    <t>8/16,29/2023</t>
   </si>
 </sst>
 </file>
@@ -4200,8 +4206,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K776" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K776"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K777" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K777"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4582,9 +4588,9 @@
   <dimension ref="A2:L712"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A682" activePane="bottomLeft"/>
-      <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="D705" sqref="D705"/>
+      <pane ySplit="3990" topLeftCell="A682"/>
+      <selection activeCell="D705" sqref="D705"/>
+      <selection pane="bottomLeft" activeCell="A682" sqref="A682"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23716,12 +23722,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K776"/>
+  <dimension ref="A2:K777"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A680" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A713" activePane="bottomLeft"/>
       <selection activeCell="F13" sqref="F10:F13"/>
-      <selection pane="bottomLeft" activeCell="F692" sqref="F692"/>
+      <selection pane="bottomLeft" activeCell="D729" sqref="D729"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23878,7 +23884,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>-0.75800000000009504</v>
+        <v>2.991999999999905</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -23888,7 +23894,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>18.041999999999973</v>
+        <v>16.791999999999973</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -40344,13 +40350,15 @@
       <c r="B724" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C724" s="13"/>
+      <c r="C724" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D724" s="39"/>
       <c r="E724" s="9"/>
       <c r="F724" s="20"/>
-      <c r="G724" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G724" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H724" s="39">
         <v>2</v>
@@ -40365,43 +40373,59 @@
       <c r="A725" s="40">
         <v>45139</v>
       </c>
-      <c r="B725" s="20"/>
-      <c r="C725" s="13"/>
+      <c r="B725" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C725" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D725" s="39"/>
       <c r="E725" s="9"/>
       <c r="F725" s="20"/>
-      <c r="G725" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H725" s="39"/>
+      <c r="G725" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H725" s="39">
+        <v>2</v>
+      </c>
       <c r="I725" s="9"/>
       <c r="J725" s="11"/>
-      <c r="K725" s="20"/>
+      <c r="K725" s="20" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" s="40">
         <v>45170</v>
       </c>
-      <c r="B726" s="20"/>
-      <c r="C726" s="13"/>
+      <c r="B726" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C726" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D726" s="39"/>
       <c r="E726" s="9"/>
       <c r="F726" s="20"/>
-      <c r="G726" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H726" s="39"/>
+      <c r="G726" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H726" s="39">
+        <v>2</v>
+      </c>
       <c r="I726" s="9"/>
       <c r="J726" s="11"/>
-      <c r="K726" s="20"/>
+      <c r="K726" s="20" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="727" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A727" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B727" s="20"/>
+      <c r="A727" s="40"/>
+      <c r="B727" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="C727" s="13"/>
       <c r="D727" s="39"/>
       <c r="E727" s="9"/>
@@ -40410,14 +40434,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H727" s="39"/>
+      <c r="H727" s="39">
+        <v>1</v>
+      </c>
       <c r="I727" s="9"/>
       <c r="J727" s="11"/>
-      <c r="K727" s="20"/>
+      <c r="K727" s="49">
+        <v>45170</v>
+      </c>
     </row>
     <row r="728" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A728" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B728" s="20"/>
       <c r="C728" s="13"/>
@@ -40435,43 +40463,43 @@
     </row>
     <row r="729" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A729" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B729" s="15"/>
-      <c r="C729" s="41"/>
-      <c r="D729" s="42"/>
+        <v>45231</v>
+      </c>
+      <c r="B729" s="20"/>
+      <c r="C729" s="13"/>
+      <c r="D729" s="39"/>
       <c r="E729" s="9"/>
-      <c r="F729" s="15"/>
-      <c r="G729" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H729" s="42"/>
+      <c r="F729" s="20"/>
+      <c r="G729" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H729" s="39"/>
       <c r="I729" s="9"/>
-      <c r="J729" s="12"/>
-      <c r="K729" s="15"/>
+      <c r="J729" s="11"/>
+      <c r="K729" s="20"/>
     </row>
     <row r="730" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A730" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B730" s="20"/>
-      <c r="C730" s="13"/>
-      <c r="D730" s="39"/>
+        <v>45261</v>
+      </c>
+      <c r="B730" s="15"/>
+      <c r="C730" s="41"/>
+      <c r="D730" s="42"/>
       <c r="E730" s="9"/>
-      <c r="F730" s="20"/>
-      <c r="G730" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H730" s="39"/>
+      <c r="F730" s="15"/>
+      <c r="G730" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H730" s="42"/>
       <c r="I730" s="9"/>
-      <c r="J730" s="11"/>
-      <c r="K730" s="20"/>
+      <c r="J730" s="12"/>
+      <c r="K730" s="15"/>
     </row>
     <row r="731" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A731" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B731" s="20"/>
       <c r="C731" s="13"/>
@@ -40489,7 +40517,7 @@
     </row>
     <row r="732" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A732" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B732" s="20"/>
       <c r="C732" s="13"/>
@@ -40507,7 +40535,7 @@
     </row>
     <row r="733" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A733" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B733" s="20"/>
       <c r="C733" s="13"/>
@@ -40525,7 +40553,7 @@
     </row>
     <row r="734" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A734" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B734" s="20"/>
       <c r="C734" s="13"/>
@@ -40543,7 +40571,7 @@
     </row>
     <row r="735" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A735" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B735" s="20"/>
       <c r="C735" s="13"/>
@@ -40561,7 +40589,7 @@
     </row>
     <row r="736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A736" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B736" s="20"/>
       <c r="C736" s="13"/>
@@ -40579,7 +40607,7 @@
     </row>
     <row r="737" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A737" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B737" s="20"/>
       <c r="C737" s="13"/>
@@ -40597,7 +40625,7 @@
     </row>
     <row r="738" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A738" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B738" s="20"/>
       <c r="C738" s="13"/>
@@ -40615,7 +40643,7 @@
     </row>
     <row r="739" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A739" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B739" s="20"/>
       <c r="C739" s="13"/>
@@ -40633,7 +40661,7 @@
     </row>
     <row r="740" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A740" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B740" s="20"/>
       <c r="C740" s="13"/>
@@ -40651,7 +40679,7 @@
     </row>
     <row r="741" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A741" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B741" s="20"/>
       <c r="C741" s="13"/>
@@ -40669,7 +40697,7 @@
     </row>
     <row r="742" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A742" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B742" s="20"/>
       <c r="C742" s="13"/>
@@ -40687,7 +40715,7 @@
     </row>
     <row r="743" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A743" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B743" s="20"/>
       <c r="C743" s="13"/>
@@ -40705,7 +40733,7 @@
     </row>
     <row r="744" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A744" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B744" s="20"/>
       <c r="C744" s="13"/>
@@ -40723,7 +40751,7 @@
     </row>
     <row r="745" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A745" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B745" s="20"/>
       <c r="C745" s="13"/>
@@ -40741,7 +40769,7 @@
     </row>
     <row r="746" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A746" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B746" s="20"/>
       <c r="C746" s="13"/>
@@ -40759,7 +40787,7 @@
     </row>
     <row r="747" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A747" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B747" s="20"/>
       <c r="C747" s="13"/>
@@ -40777,7 +40805,7 @@
     </row>
     <row r="748" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A748" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B748" s="20"/>
       <c r="C748" s="13"/>
@@ -40795,7 +40823,7 @@
     </row>
     <row r="749" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A749" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B749" s="20"/>
       <c r="C749" s="13"/>
@@ -40813,7 +40841,7 @@
     </row>
     <row r="750" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A750" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B750" s="20"/>
       <c r="C750" s="13"/>
@@ -40831,7 +40859,7 @@
     </row>
     <row r="751" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A751" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B751" s="20"/>
       <c r="C751" s="13"/>
@@ -40849,7 +40877,7 @@
     </row>
     <row r="752" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A752" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B752" s="20"/>
       <c r="C752" s="13"/>
@@ -40867,7 +40895,7 @@
     </row>
     <row r="753" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A753" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B753" s="20"/>
       <c r="C753" s="13"/>
@@ -40885,7 +40913,7 @@
     </row>
     <row r="754" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A754" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B754" s="20"/>
       <c r="C754" s="13"/>
@@ -40903,7 +40931,7 @@
     </row>
     <row r="755" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A755" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B755" s="20"/>
       <c r="C755" s="13"/>
@@ -40921,7 +40949,7 @@
     </row>
     <row r="756" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A756" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B756" s="20"/>
       <c r="C756" s="13"/>
@@ -40939,7 +40967,7 @@
     </row>
     <row r="757" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A757" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B757" s="20"/>
       <c r="C757" s="13"/>
@@ -40957,7 +40985,7 @@
     </row>
     <row r="758" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A758" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B758" s="20"/>
       <c r="C758" s="13"/>
@@ -40975,7 +41003,7 @@
     </row>
     <row r="759" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A759" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B759" s="20"/>
       <c r="C759" s="13"/>
@@ -40993,7 +41021,7 @@
     </row>
     <row r="760" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A760" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B760" s="20"/>
       <c r="C760" s="13"/>
@@ -41011,7 +41039,7 @@
     </row>
     <row r="761" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A761" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B761" s="20"/>
       <c r="C761" s="13"/>
@@ -41029,7 +41057,7 @@
     </row>
     <row r="762" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A762" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B762" s="20"/>
       <c r="C762" s="13"/>
@@ -41047,7 +41075,7 @@
     </row>
     <row r="763" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A763" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B763" s="20"/>
       <c r="C763" s="13"/>
@@ -41065,7 +41093,7 @@
     </row>
     <row r="764" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A764" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B764" s="20"/>
       <c r="C764" s="13"/>
@@ -41083,7 +41111,7 @@
     </row>
     <row r="765" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A765" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B765" s="20"/>
       <c r="C765" s="13"/>
@@ -41101,7 +41129,7 @@
     </row>
     <row r="766" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A766" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B766" s="20"/>
       <c r="C766" s="13"/>
@@ -41119,7 +41147,7 @@
     </row>
     <row r="767" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A767" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B767" s="20"/>
       <c r="C767" s="13"/>
@@ -41137,7 +41165,7 @@
     </row>
     <row r="768" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A768" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B768" s="20"/>
       <c r="C768" s="13"/>
@@ -41155,7 +41183,7 @@
     </row>
     <row r="769" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A769" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B769" s="20"/>
       <c r="C769" s="13"/>
@@ -41173,7 +41201,7 @@
     </row>
     <row r="770" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A770" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B770" s="20"/>
       <c r="C770" s="13"/>
@@ -41191,7 +41219,7 @@
     </row>
     <row r="771" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A771" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B771" s="20"/>
       <c r="C771" s="13"/>
@@ -41209,7 +41237,7 @@
     </row>
     <row r="772" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A772" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B772" s="20"/>
       <c r="C772" s="13"/>
@@ -41227,7 +41255,7 @@
     </row>
     <row r="773" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A773" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B773" s="20"/>
       <c r="C773" s="13"/>
@@ -41245,7 +41273,7 @@
     </row>
     <row r="774" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A774" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B774" s="20"/>
       <c r="C774" s="13"/>
@@ -41263,7 +41291,7 @@
     </row>
     <row r="775" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A775" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B775" s="20"/>
       <c r="C775" s="13"/>
@@ -41281,7 +41309,7 @@
     </row>
     <row r="776" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A776" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B776" s="20"/>
       <c r="C776" s="13"/>
@@ -41296,6 +41324,24 @@
       <c r="I776" s="9"/>
       <c r="J776" s="11"/>
       <c r="K776" s="20"/>
+    </row>
+    <row r="777" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A777" s="40">
+        <v>46692</v>
+      </c>
+      <c r="B777" s="20"/>
+      <c r="C777" s="13"/>
+      <c r="D777" s="39"/>
+      <c r="E777" s="9"/>
+      <c r="F777" s="20"/>
+      <c r="G777" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H777" s="39"/>
+      <c r="I777" s="9"/>
+      <c r="J777" s="11"/>
+      <c r="K777" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/ACCOUNTING/ANACAY, LEVIE B..xlsx
+++ b/REGULAR/ACCOUNTING/ANACAY, LEVIE B..xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1899" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="501">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1531,6 +1531,15 @@
   </si>
   <si>
     <t>10/4,5/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>UT(0-0-43)</t>
+  </si>
+  <si>
+    <t>UT(0-7-29)</t>
   </si>
 </sst>
 </file>
@@ -4209,8 +4218,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K778" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K778"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K782" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K782"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4591,7 +4600,7 @@
   <dimension ref="A2:L712"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3990" topLeftCell="A688" activePane="bottomLeft"/>
+      <pane ySplit="3990" topLeftCell="A679" activePane="bottomLeft"/>
       <selection activeCell="D705" sqref="D705"/>
       <selection pane="bottomLeft" activeCell="D703" sqref="D703"/>
     </sheetView>
@@ -23725,12 +23734,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K778"/>
+  <dimension ref="A2:K782"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A716" activePane="bottomLeft"/>
       <selection activeCell="F13" sqref="F10:F13"/>
-      <selection pane="bottomLeft" activeCell="F728" sqref="F728"/>
+      <selection pane="bottomLeft" activeCell="F736" sqref="F736"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23887,7 +23896,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>5.491999999999905</v>
+        <v>4.7169999999999277</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -23897,7 +23906,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>16.291999999999973</v>
+        <v>17.541999999999973</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -40495,72 +40504,80 @@
       </c>
     </row>
     <row r="730" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A730" s="40">
-        <v>45231</v>
-      </c>
+      <c r="A730" s="40"/>
       <c r="B730" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C730" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D730" s="39"/>
+        <v>489</v>
+      </c>
+      <c r="C730" s="13"/>
+      <c r="D730" s="39">
+        <v>1</v>
+      </c>
       <c r="E730" s="9"/>
       <c r="F730" s="20"/>
-      <c r="G730" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G730" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H730" s="39"/>
       <c r="I730" s="9"/>
       <c r="J730" s="11"/>
       <c r="K730" s="49">
-        <v>45239</v>
+        <v>45230</v>
       </c>
     </row>
     <row r="731" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A731" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B731" s="15"/>
-      <c r="C731" s="41"/>
-      <c r="D731" s="42"/>
+      <c r="A731" s="40"/>
+      <c r="B731" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="C731" s="13"/>
+      <c r="D731" s="39">
+        <v>0.93500000000000005</v>
+      </c>
       <c r="E731" s="9"/>
-      <c r="F731" s="15"/>
-      <c r="G731" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H731" s="42"/>
+      <c r="F731" s="20"/>
+      <c r="G731" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H731" s="39"/>
       <c r="I731" s="9"/>
-      <c r="J731" s="12"/>
-      <c r="K731" s="15"/>
+      <c r="J731" s="11"/>
+      <c r="K731" s="49"/>
     </row>
     <row r="732" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A732" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B732" s="20"/>
-      <c r="C732" s="13"/>
+        <v>45231</v>
+      </c>
+      <c r="B732" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C732" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D732" s="39"/>
       <c r="E732" s="9"/>
       <c r="F732" s="20"/>
-      <c r="G732" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G732" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H732" s="39"/>
       <c r="I732" s="9"/>
       <c r="J732" s="11"/>
-      <c r="K732" s="20"/>
+      <c r="K732" s="49">
+        <v>45239</v>
+      </c>
     </row>
     <row r="733" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A733" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B733" s="20"/>
+      <c r="A733" s="40"/>
+      <c r="B733" s="20" t="s">
+        <v>499</v>
+      </c>
       <c r="C733" s="13"/>
-      <c r="D733" s="39"/>
+      <c r="D733" s="39">
+        <v>0.09</v>
+      </c>
       <c r="E733" s="9"/>
       <c r="F733" s="20"/>
       <c r="G733" s="13" t="str">
@@ -40570,29 +40587,31 @@
       <c r="H733" s="39"/>
       <c r="I733" s="9"/>
       <c r="J733" s="11"/>
-      <c r="K733" s="20"/>
+      <c r="K733" s="49"/>
     </row>
     <row r="734" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A734" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B734" s="20"/>
-      <c r="C734" s="13"/>
-      <c r="D734" s="39"/>
+        <v>45261</v>
+      </c>
+      <c r="B734" s="15"/>
+      <c r="C734" s="41">
+        <v>1.25</v>
+      </c>
+      <c r="D734" s="42"/>
       <c r="E734" s="9"/>
-      <c r="F734" s="20"/>
-      <c r="G734" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H734" s="39"/>
+      <c r="F734" s="15"/>
+      <c r="G734" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H734" s="42"/>
       <c r="I734" s="9"/>
-      <c r="J734" s="11"/>
-      <c r="K734" s="20"/>
+      <c r="J734" s="12"/>
+      <c r="K734" s="15"/>
     </row>
     <row r="735" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A735" s="40">
-        <v>45383</v>
+      <c r="A735" s="47" t="s">
+        <v>498</v>
       </c>
       <c r="B735" s="20"/>
       <c r="C735" s="13"/>
@@ -40610,7 +40629,7 @@
     </row>
     <row r="736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A736" s="40">
-        <v>45413</v>
+        <v>45292</v>
       </c>
       <c r="B736" s="20"/>
       <c r="C736" s="13"/>
@@ -40628,7 +40647,7 @@
     </row>
     <row r="737" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A737" s="40">
-        <v>45444</v>
+        <v>45323</v>
       </c>
       <c r="B737" s="20"/>
       <c r="C737" s="13"/>
@@ -40646,7 +40665,7 @@
     </row>
     <row r="738" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A738" s="40">
-        <v>45474</v>
+        <v>45352</v>
       </c>
       <c r="B738" s="20"/>
       <c r="C738" s="13"/>
@@ -40664,7 +40683,7 @@
     </row>
     <row r="739" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A739" s="40">
-        <v>45505</v>
+        <v>45383</v>
       </c>
       <c r="B739" s="20"/>
       <c r="C739" s="13"/>
@@ -40682,7 +40701,7 @@
     </row>
     <row r="740" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A740" s="40">
-        <v>45536</v>
+        <v>45413</v>
       </c>
       <c r="B740" s="20"/>
       <c r="C740" s="13"/>
@@ -40700,7 +40719,7 @@
     </row>
     <row r="741" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A741" s="40">
-        <v>45566</v>
+        <v>45444</v>
       </c>
       <c r="B741" s="20"/>
       <c r="C741" s="13"/>
@@ -40718,7 +40737,7 @@
     </row>
     <row r="742" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A742" s="40">
-        <v>45597</v>
+        <v>45474</v>
       </c>
       <c r="B742" s="20"/>
       <c r="C742" s="13"/>
@@ -40736,7 +40755,7 @@
     </row>
     <row r="743" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A743" s="40">
-        <v>45627</v>
+        <v>45505</v>
       </c>
       <c r="B743" s="20"/>
       <c r="C743" s="13"/>
@@ -40754,7 +40773,7 @@
     </row>
     <row r="744" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A744" s="40">
-        <v>45658</v>
+        <v>45536</v>
       </c>
       <c r="B744" s="20"/>
       <c r="C744" s="13"/>
@@ -40772,7 +40791,7 @@
     </row>
     <row r="745" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A745" s="40">
-        <v>45689</v>
+        <v>45566</v>
       </c>
       <c r="B745" s="20"/>
       <c r="C745" s="13"/>
@@ -40790,7 +40809,7 @@
     </row>
     <row r="746" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A746" s="40">
-        <v>45717</v>
+        <v>45597</v>
       </c>
       <c r="B746" s="20"/>
       <c r="C746" s="13"/>
@@ -40808,7 +40827,7 @@
     </row>
     <row r="747" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A747" s="40">
-        <v>45748</v>
+        <v>45627</v>
       </c>
       <c r="B747" s="20"/>
       <c r="C747" s="13"/>
@@ -40826,7 +40845,7 @@
     </row>
     <row r="748" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A748" s="40">
-        <v>45778</v>
+        <v>45658</v>
       </c>
       <c r="B748" s="20"/>
       <c r="C748" s="13"/>
@@ -40844,7 +40863,7 @@
     </row>
     <row r="749" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A749" s="40">
-        <v>45809</v>
+        <v>45689</v>
       </c>
       <c r="B749" s="20"/>
       <c r="C749" s="13"/>
@@ -40862,7 +40881,7 @@
     </row>
     <row r="750" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A750" s="40">
-        <v>45839</v>
+        <v>45717</v>
       </c>
       <c r="B750" s="20"/>
       <c r="C750" s="13"/>
@@ -40880,7 +40899,7 @@
     </row>
     <row r="751" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A751" s="40">
-        <v>45870</v>
+        <v>45748</v>
       </c>
       <c r="B751" s="20"/>
       <c r="C751" s="13"/>
@@ -40898,7 +40917,7 @@
     </row>
     <row r="752" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A752" s="40">
-        <v>45901</v>
+        <v>45778</v>
       </c>
       <c r="B752" s="20"/>
       <c r="C752" s="13"/>
@@ -40916,7 +40935,7 @@
     </row>
     <row r="753" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A753" s="40">
-        <v>45931</v>
+        <v>45809</v>
       </c>
       <c r="B753" s="20"/>
       <c r="C753" s="13"/>
@@ -40934,7 +40953,7 @@
     </row>
     <row r="754" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A754" s="40">
-        <v>45962</v>
+        <v>45839</v>
       </c>
       <c r="B754" s="20"/>
       <c r="C754" s="13"/>
@@ -40952,7 +40971,7 @@
     </row>
     <row r="755" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A755" s="40">
-        <v>45992</v>
+        <v>45870</v>
       </c>
       <c r="B755" s="20"/>
       <c r="C755" s="13"/>
@@ -40970,7 +40989,7 @@
     </row>
     <row r="756" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A756" s="40">
-        <v>46023</v>
+        <v>45901</v>
       </c>
       <c r="B756" s="20"/>
       <c r="C756" s="13"/>
@@ -40988,7 +41007,7 @@
     </row>
     <row r="757" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A757" s="40">
-        <v>46054</v>
+        <v>45931</v>
       </c>
       <c r="B757" s="20"/>
       <c r="C757" s="13"/>
@@ -41006,7 +41025,7 @@
     </row>
     <row r="758" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A758" s="40">
-        <v>46082</v>
+        <v>45962</v>
       </c>
       <c r="B758" s="20"/>
       <c r="C758" s="13"/>
@@ -41024,7 +41043,7 @@
     </row>
     <row r="759" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A759" s="40">
-        <v>46113</v>
+        <v>45992</v>
       </c>
       <c r="B759" s="20"/>
       <c r="C759" s="13"/>
@@ -41042,7 +41061,7 @@
     </row>
     <row r="760" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A760" s="40">
-        <v>46143</v>
+        <v>46023</v>
       </c>
       <c r="B760" s="20"/>
       <c r="C760" s="13"/>
@@ -41060,7 +41079,7 @@
     </row>
     <row r="761" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A761" s="40">
-        <v>46174</v>
+        <v>46054</v>
       </c>
       <c r="B761" s="20"/>
       <c r="C761" s="13"/>
@@ -41078,7 +41097,7 @@
     </row>
     <row r="762" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A762" s="40">
-        <v>46204</v>
+        <v>46082</v>
       </c>
       <c r="B762" s="20"/>
       <c r="C762" s="13"/>
@@ -41096,7 +41115,7 @@
     </row>
     <row r="763" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A763" s="40">
-        <v>46235</v>
+        <v>46113</v>
       </c>
       <c r="B763" s="20"/>
       <c r="C763" s="13"/>
@@ -41114,7 +41133,7 @@
     </row>
     <row r="764" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A764" s="40">
-        <v>46266</v>
+        <v>46143</v>
       </c>
       <c r="B764" s="20"/>
       <c r="C764" s="13"/>
@@ -41132,7 +41151,7 @@
     </row>
     <row r="765" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A765" s="40">
-        <v>46296</v>
+        <v>46174</v>
       </c>
       <c r="B765" s="20"/>
       <c r="C765" s="13"/>
@@ -41150,7 +41169,7 @@
     </row>
     <row r="766" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A766" s="40">
-        <v>46327</v>
+        <v>46204</v>
       </c>
       <c r="B766" s="20"/>
       <c r="C766" s="13"/>
@@ -41168,7 +41187,7 @@
     </row>
     <row r="767" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A767" s="40">
-        <v>46357</v>
+        <v>46235</v>
       </c>
       <c r="B767" s="20"/>
       <c r="C767" s="13"/>
@@ -41186,7 +41205,7 @@
     </row>
     <row r="768" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A768" s="40">
-        <v>46388</v>
+        <v>46266</v>
       </c>
       <c r="B768" s="20"/>
       <c r="C768" s="13"/>
@@ -41204,7 +41223,7 @@
     </row>
     <row r="769" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A769" s="40">
-        <v>46419</v>
+        <v>46296</v>
       </c>
       <c r="B769" s="20"/>
       <c r="C769" s="13"/>
@@ -41222,7 +41241,7 @@
     </row>
     <row r="770" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A770" s="40">
-        <v>46447</v>
+        <v>46327</v>
       </c>
       <c r="B770" s="20"/>
       <c r="C770" s="13"/>
@@ -41240,7 +41259,7 @@
     </row>
     <row r="771" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A771" s="40">
-        <v>46478</v>
+        <v>46357</v>
       </c>
       <c r="B771" s="20"/>
       <c r="C771" s="13"/>
@@ -41258,7 +41277,7 @@
     </row>
     <row r="772" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A772" s="40">
-        <v>46508</v>
+        <v>46388</v>
       </c>
       <c r="B772" s="20"/>
       <c r="C772" s="13"/>
@@ -41276,7 +41295,7 @@
     </row>
     <row r="773" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A773" s="40">
-        <v>46539</v>
+        <v>46419</v>
       </c>
       <c r="B773" s="20"/>
       <c r="C773" s="13"/>
@@ -41294,7 +41313,7 @@
     </row>
     <row r="774" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A774" s="40">
-        <v>46569</v>
+        <v>46447</v>
       </c>
       <c r="B774" s="20"/>
       <c r="C774" s="13"/>
@@ -41312,7 +41331,7 @@
     </row>
     <row r="775" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A775" s="40">
-        <v>46600</v>
+        <v>46478</v>
       </c>
       <c r="B775" s="20"/>
       <c r="C775" s="13"/>
@@ -41330,7 +41349,7 @@
     </row>
     <row r="776" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A776" s="40">
-        <v>46631</v>
+        <v>46508</v>
       </c>
       <c r="B776" s="20"/>
       <c r="C776" s="13"/>
@@ -41348,7 +41367,7 @@
     </row>
     <row r="777" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A777" s="40">
-        <v>46661</v>
+        <v>46539</v>
       </c>
       <c r="B777" s="20"/>
       <c r="C777" s="13"/>
@@ -41366,7 +41385,7 @@
     </row>
     <row r="778" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A778" s="40">
-        <v>46692</v>
+        <v>46569</v>
       </c>
       <c r="B778" s="20"/>
       <c r="C778" s="13"/>
@@ -41381,6 +41400,78 @@
       <c r="I778" s="9"/>
       <c r="J778" s="11"/>
       <c r="K778" s="20"/>
+    </row>
+    <row r="779" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A779" s="40">
+        <v>46600</v>
+      </c>
+      <c r="B779" s="20"/>
+      <c r="C779" s="13"/>
+      <c r="D779" s="39"/>
+      <c r="E779" s="9"/>
+      <c r="F779" s="20"/>
+      <c r="G779" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H779" s="39"/>
+      <c r="I779" s="9"/>
+      <c r="J779" s="11"/>
+      <c r="K779" s="20"/>
+    </row>
+    <row r="780" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A780" s="40">
+        <v>46631</v>
+      </c>
+      <c r="B780" s="20"/>
+      <c r="C780" s="13"/>
+      <c r="D780" s="39"/>
+      <c r="E780" s="9"/>
+      <c r="F780" s="20"/>
+      <c r="G780" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H780" s="39"/>
+      <c r="I780" s="9"/>
+      <c r="J780" s="11"/>
+      <c r="K780" s="20"/>
+    </row>
+    <row r="781" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A781" s="40">
+        <v>46661</v>
+      </c>
+      <c r="B781" s="20"/>
+      <c r="C781" s="13"/>
+      <c r="D781" s="39"/>
+      <c r="E781" s="9"/>
+      <c r="F781" s="20"/>
+      <c r="G781" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H781" s="39"/>
+      <c r="I781" s="9"/>
+      <c r="J781" s="11"/>
+      <c r="K781" s="20"/>
+    </row>
+    <row r="782" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A782" s="40">
+        <v>46692</v>
+      </c>
+      <c r="B782" s="20"/>
+      <c r="C782" s="13"/>
+      <c r="D782" s="39"/>
+      <c r="E782" s="9"/>
+      <c r="F782" s="20"/>
+      <c r="G782" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H782" s="39"/>
+      <c r="I782" s="9"/>
+      <c r="J782" s="11"/>
+      <c r="K782" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -41494,14 +41585,14 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F3">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="G3" s="46">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.22700000000000001</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">

--- a/REGULAR/ACCOUNTING/ANACAY, LEVIE B..xlsx
+++ b/REGULAR/ACCOUNTING/ANACAY, LEVIE B..xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1914" uniqueCount="510">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1540,6 +1540,33 @@
   </si>
   <si>
     <t>UT(0-7-29)</t>
+  </si>
+  <si>
+    <t>UT(0-0-54)</t>
+  </si>
+  <si>
+    <t>UT(0-3-13)</t>
+  </si>
+  <si>
+    <t>UT(0-5-42)</t>
+  </si>
+  <si>
+    <t>UT(0-4-48)</t>
+  </si>
+  <si>
+    <t>UT(0-0-21)</t>
+  </si>
+  <si>
+    <t>UT(1-0-3)</t>
+  </si>
+  <si>
+    <t>UT(0-1-37)</t>
+  </si>
+  <si>
+    <t>UT(0-1-14)</t>
+  </si>
+  <si>
+    <t>UT(0-3-58)</t>
   </si>
 </sst>
 </file>
@@ -4218,8 +4245,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K782" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K782"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K791" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K791"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -23734,12 +23761,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K782"/>
+  <dimension ref="A2:K791"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A716" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A722" activePane="bottomLeft"/>
       <selection activeCell="F13" sqref="F10:F13"/>
-      <selection pane="bottomLeft" activeCell="F736" sqref="F736"/>
+      <selection pane="bottomLeft" activeCell="F731" sqref="F731"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23896,7 +23923,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>4.7169999999999277</v>
+        <v>-0.69200000000000728</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -40148,55 +40175,55 @@
       </c>
     </row>
     <row r="715" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A715" s="40">
-        <v>44958</v>
-      </c>
+      <c r="A715" s="40"/>
       <c r="B715" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C715" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D715" s="39"/>
+        <v>508</v>
+      </c>
+      <c r="C715" s="13"/>
+      <c r="D715" s="39">
+        <v>0.15400000000000003</v>
+      </c>
       <c r="E715" s="9"/>
       <c r="F715" s="20"/>
-      <c r="G715" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H715" s="39">
-        <v>1</v>
-      </c>
+      <c r="G715" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H715" s="39"/>
       <c r="I715" s="9"/>
       <c r="J715" s="11"/>
-      <c r="K715" s="49">
-        <v>44967</v>
-      </c>
+      <c r="K715" s="49"/>
     </row>
     <row r="716" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A716" s="40"/>
+      <c r="A716" s="40">
+        <v>44958</v>
+      </c>
       <c r="B716" s="20" t="s">
-        <v>273</v>
-      </c>
-      <c r="C716" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="C716" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D716" s="39"/>
       <c r="E716" s="9"/>
       <c r="F716" s="20"/>
-      <c r="G716" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H716" s="39"/>
+      <c r="G716" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H716" s="39">
+        <v>1</v>
+      </c>
       <c r="I716" s="9"/>
       <c r="J716" s="11"/>
-      <c r="K716" s="49" t="s">
-        <v>475</v>
+      <c r="K716" s="49">
+        <v>44967</v>
       </c>
     </row>
     <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="40"/>
       <c r="B717" s="20" t="s">
-        <v>70</v>
+        <v>273</v>
       </c>
       <c r="C717" s="13"/>
       <c r="D717" s="39"/>
@@ -40206,73 +40233,61 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H717" s="39">
-        <v>1</v>
-      </c>
+      <c r="H717" s="39"/>
       <c r="I717" s="9"/>
       <c r="J717" s="11"/>
-      <c r="K717" s="49">
-        <v>44973</v>
+      <c r="K717" s="49" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="718" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A718" s="40">
-        <v>44986</v>
-      </c>
+      <c r="A718" s="40"/>
       <c r="B718" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C718" s="13">
-        <v>1.25</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C718" s="13"/>
       <c r="D718" s="39"/>
       <c r="E718" s="9"/>
       <c r="F718" s="20"/>
-      <c r="G718" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G718" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H718" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I718" s="9"/>
       <c r="J718" s="11"/>
-      <c r="K718" s="20" t="s">
-        <v>478</v>
+      <c r="K718" s="49">
+        <v>44973</v>
       </c>
     </row>
     <row r="719" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A719" s="40">
-        <v>45017</v>
-      </c>
+      <c r="A719" s="40"/>
       <c r="B719" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C719" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D719" s="39"/>
+        <v>507</v>
+      </c>
+      <c r="C719" s="13"/>
+      <c r="D719" s="39">
+        <v>0.20200000000000001</v>
+      </c>
       <c r="E719" s="9"/>
       <c r="F719" s="20"/>
-      <c r="G719" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H719" s="39">
-        <v>2</v>
-      </c>
+      <c r="G719" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H719" s="39"/>
       <c r="I719" s="9"/>
       <c r="J719" s="11"/>
-      <c r="K719" s="20" t="s">
-        <v>479</v>
-      </c>
+      <c r="K719" s="49"/>
     </row>
     <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" s="40">
-        <v>45047</v>
+        <v>44986</v>
       </c>
       <c r="B720" s="20" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C720" s="13">
         <v>1.25</v>
@@ -40285,70 +40300,74 @@
         <v>1.25</v>
       </c>
       <c r="H720" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I720" s="9"/>
       <c r="J720" s="11"/>
-      <c r="K720" s="49">
-        <v>45050</v>
+      <c r="K720" s="20" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" s="40"/>
       <c r="B721" s="20" t="s">
-        <v>64</v>
+        <v>506</v>
       </c>
       <c r="C721" s="13"/>
-      <c r="D721" s="39"/>
+      <c r="D721" s="39">
+        <v>1.006</v>
+      </c>
       <c r="E721" s="9"/>
       <c r="F721" s="20"/>
       <c r="G721" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H721" s="39">
-        <v>2</v>
-      </c>
+      <c r="H721" s="39"/>
       <c r="I721" s="9"/>
       <c r="J721" s="11"/>
-      <c r="K721" s="49" t="s">
-        <v>482</v>
-      </c>
+      <c r="K721" s="20"/>
     </row>
     <row r="722" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A722" s="40"/>
+      <c r="A722" s="40">
+        <v>45017</v>
+      </c>
       <c r="B722" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="C722" s="13"/>
+        <v>64</v>
+      </c>
+      <c r="C722" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D722" s="39"/>
       <c r="E722" s="9"/>
       <c r="F722" s="20"/>
-      <c r="G722" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H722" s="39"/>
+      <c r="G722" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H722" s="39">
+        <v>2</v>
+      </c>
       <c r="I722" s="9"/>
       <c r="J722" s="11"/>
-      <c r="K722" s="49">
-        <v>45075</v>
+      <c r="K722" s="20" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="723" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A723" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B723" s="20"/>
-      <c r="C723" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D723" s="39"/>
+      <c r="A723" s="40"/>
+      <c r="B723" s="20" t="s">
+        <v>505</v>
+      </c>
+      <c r="C723" s="13"/>
+      <c r="D723" s="39">
+        <v>4.4000000000000004E-2</v>
+      </c>
       <c r="E723" s="9"/>
       <c r="F723" s="20"/>
-      <c r="G723" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G723" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H723" s="39"/>
       <c r="I723" s="9"/>
@@ -40357,10 +40376,10 @@
     </row>
     <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" s="40">
-        <v>45108</v>
+        <v>45047</v>
       </c>
       <c r="B724" s="20" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C724" s="13">
         <v>1.25</v>
@@ -40373,134 +40392,124 @@
         <v>1.25</v>
       </c>
       <c r="H724" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I724" s="9"/>
       <c r="J724" s="11"/>
-      <c r="K724" s="20" t="s">
-        <v>483</v>
+      <c r="K724" s="49">
+        <v>45050</v>
       </c>
     </row>
     <row r="725" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A725" s="40">
-        <v>45139</v>
-      </c>
+      <c r="A725" s="40"/>
       <c r="B725" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C725" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C725" s="13"/>
       <c r="D725" s="39"/>
       <c r="E725" s="9"/>
       <c r="F725" s="20"/>
-      <c r="G725" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G725" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H725" s="39">
         <v>2</v>
       </c>
       <c r="I725" s="9"/>
       <c r="J725" s="11"/>
-      <c r="K725" s="20" t="s">
-        <v>495</v>
+      <c r="K725" s="49" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="726" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A726" s="40">
-        <v>45170</v>
-      </c>
+      <c r="A726" s="40"/>
       <c r="B726" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C726" s="13">
-        <v>1.25</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="C726" s="13"/>
       <c r="D726" s="39"/>
       <c r="E726" s="9"/>
       <c r="F726" s="20"/>
-      <c r="G726" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H726" s="39">
-        <v>2</v>
-      </c>
+      <c r="G726" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H726" s="39"/>
       <c r="I726" s="9"/>
       <c r="J726" s="11"/>
-      <c r="K726" s="20" t="s">
-        <v>496</v>
+      <c r="K726" s="49">
+        <v>45075</v>
       </c>
     </row>
     <row r="727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A727" s="40"/>
       <c r="B727" s="20" t="s">
-        <v>70</v>
+        <v>504</v>
       </c>
       <c r="C727" s="13"/>
-      <c r="D727" s="39"/>
+      <c r="D727" s="39">
+        <v>0.6</v>
+      </c>
       <c r="E727" s="9"/>
       <c r="F727" s="20"/>
       <c r="G727" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H727" s="39">
-        <v>1</v>
-      </c>
+      <c r="H727" s="39"/>
       <c r="I727" s="9"/>
       <c r="J727" s="11"/>
-      <c r="K727" s="49">
-        <v>45170</v>
-      </c>
+      <c r="K727" s="49"/>
     </row>
     <row r="728" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A728" s="40">
-        <v>45200</v>
+        <v>45078</v>
       </c>
       <c r="B728" s="20" t="s">
-        <v>64</v>
+        <v>503</v>
       </c>
       <c r="C728" s="13">
         <v>1.25</v>
       </c>
-      <c r="D728" s="39"/>
+      <c r="D728" s="39">
+        <v>0.71199999999999997</v>
+      </c>
       <c r="E728" s="9"/>
       <c r="F728" s="20"/>
       <c r="G728" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H728" s="39">
-        <v>2</v>
-      </c>
+      <c r="H728" s="39"/>
       <c r="I728" s="9"/>
       <c r="J728" s="11"/>
-      <c r="K728" s="20" t="s">
-        <v>497</v>
-      </c>
+      <c r="K728" s="20"/>
     </row>
     <row r="729" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A729" s="40"/>
+      <c r="A729" s="40">
+        <v>45108</v>
+      </c>
       <c r="B729" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C729" s="13"/>
+        <v>64</v>
+      </c>
+      <c r="C729" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D729" s="39"/>
       <c r="E729" s="9"/>
       <c r="F729" s="20"/>
-      <c r="G729" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G729" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H729" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I729" s="9"/>
       <c r="J729" s="11"/>
-      <c r="K729" s="49">
-        <v>45219</v>
+      <c r="K729" s="20" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="730" spans="1:11" x14ac:dyDescent="0.25">
@@ -40522,17 +40531,17 @@
       <c r="I730" s="9"/>
       <c r="J730" s="11"/>
       <c r="K730" s="49">
-        <v>45230</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="731" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A731" s="40"/>
       <c r="B731" s="20" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C731" s="13"/>
       <c r="D731" s="39">
-        <v>0.93500000000000005</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="E731" s="9"/>
       <c r="F731" s="20"/>
@@ -40547,10 +40556,10 @@
     </row>
     <row r="732" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A732" s="40">
-        <v>45231</v>
+        <v>45139</v>
       </c>
       <c r="B732" s="20" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C732" s="13">
         <v>1.25</v>
@@ -40562,21 +40571,23 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H732" s="39"/>
+      <c r="H732" s="39">
+        <v>2</v>
+      </c>
       <c r="I732" s="9"/>
       <c r="J732" s="11"/>
-      <c r="K732" s="49">
-        <v>45239</v>
+      <c r="K732" s="20" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="733" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A733" s="40"/>
       <c r="B733" s="20" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C733" s="13"/>
       <c r="D733" s="39">
-        <v>0.09</v>
+        <v>0.11200000000000002</v>
       </c>
       <c r="E733" s="9"/>
       <c r="F733" s="20"/>
@@ -40587,33 +40598,39 @@
       <c r="H733" s="39"/>
       <c r="I733" s="9"/>
       <c r="J733" s="11"/>
-      <c r="K733" s="49"/>
+      <c r="K733" s="20"/>
     </row>
     <row r="734" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A734" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B734" s="15"/>
-      <c r="C734" s="41">
-        <v>1.25</v>
-      </c>
-      <c r="D734" s="42"/>
+        <v>45170</v>
+      </c>
+      <c r="B734" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C734" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D734" s="39"/>
       <c r="E734" s="9"/>
-      <c r="F734" s="15"/>
-      <c r="G734" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H734" s="42"/>
+      <c r="F734" s="20"/>
+      <c r="G734" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H734" s="39">
+        <v>2</v>
+      </c>
       <c r="I734" s="9"/>
-      <c r="J734" s="12"/>
-      <c r="K734" s="15"/>
+      <c r="J734" s="11"/>
+      <c r="K734" s="20" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="735" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A735" s="47" t="s">
-        <v>498</v>
-      </c>
-      <c r="B735" s="20"/>
+      <c r="A735" s="40"/>
+      <c r="B735" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="C735" s="13"/>
       <c r="D735" s="39"/>
       <c r="E735" s="9"/>
@@ -40622,18 +40639,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H735" s="39"/>
+      <c r="H735" s="39">
+        <v>1</v>
+      </c>
       <c r="I735" s="9"/>
       <c r="J735" s="11"/>
-      <c r="K735" s="20"/>
+      <c r="K735" s="49">
+        <v>45170</v>
+      </c>
     </row>
     <row r="736" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A736" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B736" s="20"/>
+      <c r="A736" s="40"/>
+      <c r="B736" s="20" t="s">
+        <v>107</v>
+      </c>
       <c r="C736" s="13"/>
-      <c r="D736" s="39"/>
+      <c r="D736" s="39">
+        <v>0.68100000000000005</v>
+      </c>
       <c r="E736" s="9"/>
       <c r="F736" s="20"/>
       <c r="G736" s="13" t="str">
@@ -40643,31 +40666,39 @@
       <c r="H736" s="39"/>
       <c r="I736" s="9"/>
       <c r="J736" s="11"/>
-      <c r="K736" s="20"/>
+      <c r="K736" s="49"/>
     </row>
     <row r="737" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A737" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B737" s="20"/>
-      <c r="C737" s="13"/>
+        <v>45200</v>
+      </c>
+      <c r="B737" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C737" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D737" s="39"/>
       <c r="E737" s="9"/>
       <c r="F737" s="20"/>
-      <c r="G737" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H737" s="39"/>
+      <c r="G737" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H737" s="39">
+        <v>2</v>
+      </c>
       <c r="I737" s="9"/>
       <c r="J737" s="11"/>
-      <c r="K737" s="20"/>
+      <c r="K737" s="20" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="738" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A738" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B738" s="20"/>
+      <c r="A738" s="40"/>
+      <c r="B738" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="C738" s="13"/>
       <c r="D738" s="39"/>
       <c r="E738" s="9"/>
@@ -40676,18 +40707,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H738" s="39"/>
+      <c r="H738" s="39">
+        <v>1</v>
+      </c>
       <c r="I738" s="9"/>
       <c r="J738" s="11"/>
-      <c r="K738" s="20"/>
+      <c r="K738" s="49">
+        <v>45219</v>
+      </c>
     </row>
     <row r="739" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A739" s="40">
-        <v>45383</v>
-      </c>
-      <c r="B739" s="20"/>
+      <c r="A739" s="40"/>
+      <c r="B739" s="20" t="s">
+        <v>489</v>
+      </c>
       <c r="C739" s="13"/>
-      <c r="D739" s="39"/>
+      <c r="D739" s="39">
+        <v>1</v>
+      </c>
       <c r="E739" s="9"/>
       <c r="F739" s="20"/>
       <c r="G739" s="13" t="str">
@@ -40697,15 +40734,19 @@
       <c r="H739" s="39"/>
       <c r="I739" s="9"/>
       <c r="J739" s="11"/>
-      <c r="K739" s="20"/>
+      <c r="K739" s="49">
+        <v>45230</v>
+      </c>
     </row>
     <row r="740" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A740" s="40">
-        <v>45413</v>
-      </c>
-      <c r="B740" s="20"/>
+      <c r="A740" s="40"/>
+      <c r="B740" s="20" t="s">
+        <v>500</v>
+      </c>
       <c r="C740" s="13"/>
-      <c r="D740" s="39"/>
+      <c r="D740" s="39">
+        <v>0.93500000000000005</v>
+      </c>
       <c r="E740" s="9"/>
       <c r="F740" s="20"/>
       <c r="G740" s="13" t="str">
@@ -40715,33 +40756,41 @@
       <c r="H740" s="39"/>
       <c r="I740" s="9"/>
       <c r="J740" s="11"/>
-      <c r="K740" s="20"/>
+      <c r="K740" s="49"/>
     </row>
     <row r="741" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A741" s="40">
-        <v>45444</v>
-      </c>
-      <c r="B741" s="20"/>
-      <c r="C741" s="13"/>
+        <v>45231</v>
+      </c>
+      <c r="B741" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C741" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D741" s="39"/>
       <c r="E741" s="9"/>
       <c r="F741" s="20"/>
-      <c r="G741" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G741" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H741" s="39"/>
       <c r="I741" s="9"/>
       <c r="J741" s="11"/>
-      <c r="K741" s="20"/>
+      <c r="K741" s="49">
+        <v>45239</v>
+      </c>
     </row>
     <row r="742" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A742" s="40">
-        <v>45474</v>
-      </c>
-      <c r="B742" s="20"/>
+      <c r="A742" s="40"/>
+      <c r="B742" s="20" t="s">
+        <v>499</v>
+      </c>
       <c r="C742" s="13"/>
-      <c r="D742" s="39"/>
+      <c r="D742" s="39">
+        <v>0.09</v>
+      </c>
       <c r="E742" s="9"/>
       <c r="F742" s="20"/>
       <c r="G742" s="13" t="str">
@@ -40751,29 +40800,35 @@
       <c r="H742" s="39"/>
       <c r="I742" s="9"/>
       <c r="J742" s="11"/>
-      <c r="K742" s="20"/>
+      <c r="K742" s="49"/>
     </row>
     <row r="743" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A743" s="40">
-        <v>45505</v>
-      </c>
-      <c r="B743" s="20"/>
-      <c r="C743" s="13"/>
-      <c r="D743" s="39"/>
+        <v>45261</v>
+      </c>
+      <c r="B743" s="15" t="s">
+        <v>509</v>
+      </c>
+      <c r="C743" s="41">
+        <v>1.25</v>
+      </c>
+      <c r="D743" s="42">
+        <v>0.496</v>
+      </c>
       <c r="E743" s="9"/>
-      <c r="F743" s="20"/>
-      <c r="G743" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H743" s="39"/>
+      <c r="F743" s="15"/>
+      <c r="G743" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H743" s="42"/>
       <c r="I743" s="9"/>
-      <c r="J743" s="11"/>
-      <c r="K743" s="20"/>
+      <c r="J743" s="12"/>
+      <c r="K743" s="15"/>
     </row>
     <row r="744" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A744" s="40">
-        <v>45536</v>
+      <c r="A744" s="47" t="s">
+        <v>498</v>
       </c>
       <c r="B744" s="20"/>
       <c r="C744" s="13"/>
@@ -40791,7 +40846,7 @@
     </row>
     <row r="745" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A745" s="40">
-        <v>45566</v>
+        <v>45292</v>
       </c>
       <c r="B745" s="20"/>
       <c r="C745" s="13"/>
@@ -40809,7 +40864,7 @@
     </row>
     <row r="746" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A746" s="40">
-        <v>45597</v>
+        <v>45323</v>
       </c>
       <c r="B746" s="20"/>
       <c r="C746" s="13"/>
@@ -40827,7 +40882,7 @@
     </row>
     <row r="747" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A747" s="40">
-        <v>45627</v>
+        <v>45352</v>
       </c>
       <c r="B747" s="20"/>
       <c r="C747" s="13"/>
@@ -40845,7 +40900,7 @@
     </row>
     <row r="748" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A748" s="40">
-        <v>45658</v>
+        <v>45383</v>
       </c>
       <c r="B748" s="20"/>
       <c r="C748" s="13"/>
@@ -40863,7 +40918,7 @@
     </row>
     <row r="749" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A749" s="40">
-        <v>45689</v>
+        <v>45413</v>
       </c>
       <c r="B749" s="20"/>
       <c r="C749" s="13"/>
@@ -40881,7 +40936,7 @@
     </row>
     <row r="750" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A750" s="40">
-        <v>45717</v>
+        <v>45444</v>
       </c>
       <c r="B750" s="20"/>
       <c r="C750" s="13"/>
@@ -40899,7 +40954,7 @@
     </row>
     <row r="751" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A751" s="40">
-        <v>45748</v>
+        <v>45474</v>
       </c>
       <c r="B751" s="20"/>
       <c r="C751" s="13"/>
@@ -40917,7 +40972,7 @@
     </row>
     <row r="752" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A752" s="40">
-        <v>45778</v>
+        <v>45505</v>
       </c>
       <c r="B752" s="20"/>
       <c r="C752" s="13"/>
@@ -40935,7 +40990,7 @@
     </row>
     <row r="753" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A753" s="40">
-        <v>45809</v>
+        <v>45536</v>
       </c>
       <c r="B753" s="20"/>
       <c r="C753" s="13"/>
@@ -40953,7 +41008,7 @@
     </row>
     <row r="754" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A754" s="40">
-        <v>45839</v>
+        <v>45566</v>
       </c>
       <c r="B754" s="20"/>
       <c r="C754" s="13"/>
@@ -40971,7 +41026,7 @@
     </row>
     <row r="755" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A755" s="40">
-        <v>45870</v>
+        <v>45597</v>
       </c>
       <c r="B755" s="20"/>
       <c r="C755" s="13"/>
@@ -40989,7 +41044,7 @@
     </row>
     <row r="756" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A756" s="40">
-        <v>45901</v>
+        <v>45627</v>
       </c>
       <c r="B756" s="20"/>
       <c r="C756" s="13"/>
@@ -41007,7 +41062,7 @@
     </row>
     <row r="757" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A757" s="40">
-        <v>45931</v>
+        <v>45658</v>
       </c>
       <c r="B757" s="20"/>
       <c r="C757" s="13"/>
@@ -41025,7 +41080,7 @@
     </row>
     <row r="758" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A758" s="40">
-        <v>45962</v>
+        <v>45689</v>
       </c>
       <c r="B758" s="20"/>
       <c r="C758" s="13"/>
@@ -41043,7 +41098,7 @@
     </row>
     <row r="759" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A759" s="40">
-        <v>45992</v>
+        <v>45717</v>
       </c>
       <c r="B759" s="20"/>
       <c r="C759" s="13"/>
@@ -41061,7 +41116,7 @@
     </row>
     <row r="760" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A760" s="40">
-        <v>46023</v>
+        <v>45748</v>
       </c>
       <c r="B760" s="20"/>
       <c r="C760" s="13"/>
@@ -41079,7 +41134,7 @@
     </row>
     <row r="761" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A761" s="40">
-        <v>46054</v>
+        <v>45778</v>
       </c>
       <c r="B761" s="20"/>
       <c r="C761" s="13"/>
@@ -41097,7 +41152,7 @@
     </row>
     <row r="762" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A762" s="40">
-        <v>46082</v>
+        <v>45809</v>
       </c>
       <c r="B762" s="20"/>
       <c r="C762" s="13"/>
@@ -41115,7 +41170,7 @@
     </row>
     <row r="763" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A763" s="40">
-        <v>46113</v>
+        <v>45839</v>
       </c>
       <c r="B763" s="20"/>
       <c r="C763" s="13"/>
@@ -41133,7 +41188,7 @@
     </row>
     <row r="764" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A764" s="40">
-        <v>46143</v>
+        <v>45870</v>
       </c>
       <c r="B764" s="20"/>
       <c r="C764" s="13"/>
@@ -41151,7 +41206,7 @@
     </row>
     <row r="765" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A765" s="40">
-        <v>46174</v>
+        <v>45901</v>
       </c>
       <c r="B765" s="20"/>
       <c r="C765" s="13"/>
@@ -41169,7 +41224,7 @@
     </row>
     <row r="766" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A766" s="40">
-        <v>46204</v>
+        <v>45931</v>
       </c>
       <c r="B766" s="20"/>
       <c r="C766" s="13"/>
@@ -41187,7 +41242,7 @@
     </row>
     <row r="767" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A767" s="40">
-        <v>46235</v>
+        <v>45962</v>
       </c>
       <c r="B767" s="20"/>
       <c r="C767" s="13"/>
@@ -41205,7 +41260,7 @@
     </row>
     <row r="768" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A768" s="40">
-        <v>46266</v>
+        <v>45992</v>
       </c>
       <c r="B768" s="20"/>
       <c r="C768" s="13"/>
@@ -41223,7 +41278,7 @@
     </row>
     <row r="769" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A769" s="40">
-        <v>46296</v>
+        <v>46023</v>
       </c>
       <c r="B769" s="20"/>
       <c r="C769" s="13"/>
@@ -41241,7 +41296,7 @@
     </row>
     <row r="770" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A770" s="40">
-        <v>46327</v>
+        <v>46054</v>
       </c>
       <c r="B770" s="20"/>
       <c r="C770" s="13"/>
@@ -41259,7 +41314,7 @@
     </row>
     <row r="771" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A771" s="40">
-        <v>46357</v>
+        <v>46082</v>
       </c>
       <c r="B771" s="20"/>
       <c r="C771" s="13"/>
@@ -41277,7 +41332,7 @@
     </row>
     <row r="772" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A772" s="40">
-        <v>46388</v>
+        <v>46113</v>
       </c>
       <c r="B772" s="20"/>
       <c r="C772" s="13"/>
@@ -41295,7 +41350,7 @@
     </row>
     <row r="773" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A773" s="40">
-        <v>46419</v>
+        <v>46143</v>
       </c>
       <c r="B773" s="20"/>
       <c r="C773" s="13"/>
@@ -41313,7 +41368,7 @@
     </row>
     <row r="774" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A774" s="40">
-        <v>46447</v>
+        <v>46174</v>
       </c>
       <c r="B774" s="20"/>
       <c r="C774" s="13"/>
@@ -41331,7 +41386,7 @@
     </row>
     <row r="775" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A775" s="40">
-        <v>46478</v>
+        <v>46204</v>
       </c>
       <c r="B775" s="20"/>
       <c r="C775" s="13"/>
@@ -41349,7 +41404,7 @@
     </row>
     <row r="776" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A776" s="40">
-        <v>46508</v>
+        <v>46235</v>
       </c>
       <c r="B776" s="20"/>
       <c r="C776" s="13"/>
@@ -41367,7 +41422,7 @@
     </row>
     <row r="777" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A777" s="40">
-        <v>46539</v>
+        <v>46266</v>
       </c>
       <c r="B777" s="20"/>
       <c r="C777" s="13"/>
@@ -41385,7 +41440,7 @@
     </row>
     <row r="778" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A778" s="40">
-        <v>46569</v>
+        <v>46296</v>
       </c>
       <c r="B778" s="20"/>
       <c r="C778" s="13"/>
@@ -41403,7 +41458,7 @@
     </row>
     <row r="779" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A779" s="40">
-        <v>46600</v>
+        <v>46327</v>
       </c>
       <c r="B779" s="20"/>
       <c r="C779" s="13"/>
@@ -41421,7 +41476,7 @@
     </row>
     <row r="780" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A780" s="40">
-        <v>46631</v>
+        <v>46357</v>
       </c>
       <c r="B780" s="20"/>
       <c r="C780" s="13"/>
@@ -41439,7 +41494,7 @@
     </row>
     <row r="781" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A781" s="40">
-        <v>46661</v>
+        <v>46388</v>
       </c>
       <c r="B781" s="20"/>
       <c r="C781" s="13"/>
@@ -41457,7 +41512,7 @@
     </row>
     <row r="782" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A782" s="40">
-        <v>46692</v>
+        <v>46419</v>
       </c>
       <c r="B782" s="20"/>
       <c r="C782" s="13"/>
@@ -41472,6 +41527,168 @@
       <c r="I782" s="9"/>
       <c r="J782" s="11"/>
       <c r="K782" s="20"/>
+    </row>
+    <row r="783" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A783" s="40">
+        <v>46447</v>
+      </c>
+      <c r="B783" s="20"/>
+      <c r="C783" s="13"/>
+      <c r="D783" s="39"/>
+      <c r="E783" s="9"/>
+      <c r="F783" s="20"/>
+      <c r="G783" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H783" s="39"/>
+      <c r="I783" s="9"/>
+      <c r="J783" s="11"/>
+      <c r="K783" s="20"/>
+    </row>
+    <row r="784" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A784" s="40">
+        <v>46478</v>
+      </c>
+      <c r="B784" s="20"/>
+      <c r="C784" s="13"/>
+      <c r="D784" s="39"/>
+      <c r="E784" s="9"/>
+      <c r="F784" s="20"/>
+      <c r="G784" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H784" s="39"/>
+      <c r="I784" s="9"/>
+      <c r="J784" s="11"/>
+      <c r="K784" s="20"/>
+    </row>
+    <row r="785" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A785" s="40">
+        <v>46508</v>
+      </c>
+      <c r="B785" s="20"/>
+      <c r="C785" s="13"/>
+      <c r="D785" s="39"/>
+      <c r="E785" s="9"/>
+      <c r="F785" s="20"/>
+      <c r="G785" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H785" s="39"/>
+      <c r="I785" s="9"/>
+      <c r="J785" s="11"/>
+      <c r="K785" s="20"/>
+    </row>
+    <row r="786" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A786" s="40">
+        <v>46539</v>
+      </c>
+      <c r="B786" s="20"/>
+      <c r="C786" s="13"/>
+      <c r="D786" s="39"/>
+      <c r="E786" s="9"/>
+      <c r="F786" s="20"/>
+      <c r="G786" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H786" s="39"/>
+      <c r="I786" s="9"/>
+      <c r="J786" s="11"/>
+      <c r="K786" s="20"/>
+    </row>
+    <row r="787" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A787" s="40">
+        <v>46569</v>
+      </c>
+      <c r="B787" s="20"/>
+      <c r="C787" s="13"/>
+      <c r="D787" s="39"/>
+      <c r="E787" s="9"/>
+      <c r="F787" s="20"/>
+      <c r="G787" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H787" s="39"/>
+      <c r="I787" s="9"/>
+      <c r="J787" s="11"/>
+      <c r="K787" s="20"/>
+    </row>
+    <row r="788" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A788" s="40">
+        <v>46600</v>
+      </c>
+      <c r="B788" s="20"/>
+      <c r="C788" s="13"/>
+      <c r="D788" s="39"/>
+      <c r="E788" s="9"/>
+      <c r="F788" s="20"/>
+      <c r="G788" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H788" s="39"/>
+      <c r="I788" s="9"/>
+      <c r="J788" s="11"/>
+      <c r="K788" s="20"/>
+    </row>
+    <row r="789" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A789" s="40">
+        <v>46631</v>
+      </c>
+      <c r="B789" s="20"/>
+      <c r="C789" s="13"/>
+      <c r="D789" s="39"/>
+      <c r="E789" s="9"/>
+      <c r="F789" s="20"/>
+      <c r="G789" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H789" s="39"/>
+      <c r="I789" s="9"/>
+      <c r="J789" s="11"/>
+      <c r="K789" s="20"/>
+    </row>
+    <row r="790" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A790" s="40">
+        <v>46661</v>
+      </c>
+      <c r="B790" s="20"/>
+      <c r="C790" s="13"/>
+      <c r="D790" s="39"/>
+      <c r="E790" s="9"/>
+      <c r="F790" s="20"/>
+      <c r="G790" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H790" s="39"/>
+      <c r="I790" s="9"/>
+      <c r="J790" s="11"/>
+      <c r="K790" s="20"/>
+    </row>
+    <row r="791" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A791" s="40">
+        <v>46692</v>
+      </c>
+      <c r="B791" s="20"/>
+      <c r="C791" s="13"/>
+      <c r="D791" s="39"/>
+      <c r="E791" s="9"/>
+      <c r="F791" s="20"/>
+      <c r="G791" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H791" s="39"/>
+      <c r="I791" s="9"/>
+      <c r="J791" s="11"/>
+      <c r="K791" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -41581,18 +41798,16 @@
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
-      <c r="D3">
-        <v>0</v>
-      </c>
+      <c r="D3"/>
       <c r="E3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="G3" s="46">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.93500000000000005</v>
+        <v>0.496</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">
